--- a/data/Nomes das variaveis.xlsx
+++ b/data/Nomes das variaveis.xlsx
@@ -136,7 +136,7 @@
     <t>score_clinico</t>
   </si>
   <si>
-    <t>Score Clínico</t>
+    <t>Escore Clínico</t>
   </si>
   <si>
     <t>Valor do índice</t>
